--- a/src/sitemap.xlsx
+++ b/src/sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\gulp_startkit\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74804B6-F98E-4DE0-9706-018C3E8C8E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F01672-0878-4722-AEEA-EDE0B1525E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1125" windowWidth="25200" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28605" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/videoground.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | videoground</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -661,12 +669,23 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>

--- a/src/sitemap.xlsx
+++ b/src/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\gulp_startkit\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F01672-0878-4722-AEEA-EDE0B1525E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351698F-DEED-4440-97AC-52080D5482FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28605" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="105" windowWidth="22425" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">starter kit | accordion </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/examples/simplevideoplay.html</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,6 +146,14 @@
   </si>
   <si>
     <t>starter kit | videoground</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | accordion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/_template.pug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -564,13 +568,13 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -584,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -598,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -609,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -620,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -631,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -642,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -653,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -664,29 +668,29 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
